--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="Redbf2b18be714e55"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R261715061ae249cf"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -96,7 +96,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>45949.85773707176</x:v>
+        <x:v>45976.82439765046</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -104,7 +104,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>45949.85773707176</x:v>
+        <x:v>45976.82439765046</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R261715061ae249cf"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R81454190e3b548f4"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -96,7 +96,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>45976.82439765046</x:v>
+        <x:v>45976.88578993056</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -104,7 +104,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>45976.82439765046</x:v>
+        <x:v>45976.88578993056</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R81454190e3b548f4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="Rabcd06d0903d4b4b"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -96,7 +96,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>45976.88578993056</x:v>
+        <x:v>45976.89761574074</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -104,7 +104,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>45976.88578993056</x:v>
+        <x:v>45976.89761574074</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="Rabcd06d0903d4b4b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="Ra801b8b56d3d4174"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -27,12 +27,12 @@
     <x:font/>
     <x:font>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
@@ -96,7 +96,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>45976.89761574074</x:v>
+        <x:v>45977.4559952662</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -104,7 +104,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>45976.89761574074</x:v>
+        <x:v>45977.4559952662</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="Ra801b8b56d3d4174"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R71f44017e2c04684"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -96,7 +96,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>45977.4559952662</x:v>
+        <x:v>45977.46785375</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -104,7 +104,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>45977.4559952662</x:v>
+        <x:v>45977.46785376158</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R71f44017e2c04684"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="Rb199bccfe6644efc"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -96,7 +96,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>45977.46785375</x:v>
+        <x:v>45977.48433409722</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -104,7 +104,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>45977.46785376158</x:v>
+        <x:v>45977.48433409722</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="Rb199bccfe6644efc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R9ff8a91f5d34402e"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -96,7 +96,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>45977.48433409722</x:v>
+        <x:v>45977.496436203706</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -104,7 +104,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>45977.48433409722</x:v>
+        <x:v>45977.496436203706</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R9ff8a91f5d34402e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="Rec1ac481d42944b1"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -96,7 +96,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>45977.496436203706</x:v>
+        <x:v>45977.60673078704</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -104,7 +104,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>45977.496436203706</x:v>
+        <x:v>45977.60673078704</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="Rec1ac481d42944b1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R59698a9975fb4fa4"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -96,7 +96,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>45977.60673078704</x:v>
+        <x:v>45977.65872157407</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -104,7 +104,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>45977.60673078704</x:v>
+        <x:v>45977.65872158565</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R59698a9975fb4fa4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R61b65a74b2e14c24"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -96,7 +96,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>45977.65872157407</x:v>
+        <x:v>45977.67140265046</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -104,7 +104,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>45977.65872158565</x:v>
+        <x:v>45977.67140265046</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R61b65a74b2e14c24"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R287aafd9816b4d6e"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -96,7 +96,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>45977.67140265046</x:v>
+        <x:v>45977.70632243055</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -104,7 +104,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>45977.67140265046</x:v>
+        <x:v>45977.70632243055</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R287aafd9816b4d6e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R74d165d2bb364511"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -96,7 +96,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>45977.70632243055</x:v>
+        <x:v>45977.71624332176</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -104,7 +104,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>45977.70632243055</x:v>
+        <x:v>45977.71624332176</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R74d165d2bb364511"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="Rdcdf3f03a87348b6"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -96,7 +96,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>45977.71624332176</x:v>
+        <x:v>45977.73213430556</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -104,7 +104,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>45977.71624332176</x:v>
+        <x:v>45977.73213430556</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="Rdcdf3f03a87348b6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R5de37bfcb7ea4e4e"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -96,7 +96,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>45977.73213430556</x:v>
+        <x:v>45977.74717069444</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -104,7 +104,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>45977.73213430556</x:v>
+        <x:v>45977.74717069444</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R5de37bfcb7ea4e4e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R0bcb16555a6b4b85"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -96,7 +96,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>45977.74717069444</x:v>
+        <x:v>45977.76653141204</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -104,7 +104,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>45977.74717069444</x:v>
+        <x:v>45977.76653141204</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R0bcb16555a6b4b85"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R51a163c603da42ba"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -96,7 +96,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>45977.76653141204</x:v>
+        <x:v>45978.009563506945</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -104,7 +104,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>45977.76653141204</x:v>
+        <x:v>45978.009563506945</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R51a163c603da42ba"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="Rc1293a9d0eb44d7a"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -96,7 +96,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>45978.009563506945</x:v>
+        <x:v>45978.017864421294</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -104,7 +104,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>45978.009563506945</x:v>
+        <x:v>45978.01786443287</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
@@ -5,8 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="Rc1293a9d0eb44d7a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R61b5f9f5ea86468b"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 
@@ -96,7 +97,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>45978.017864421294</x:v>
+        <x:v>45978.34666199074</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -104,7 +105,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>45978.01786443287</x:v>
+        <x:v>45978.34666199074</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R61b5f9f5ea86468b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="Rf5eb8dcabe0b42a6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -97,7 +97,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>45978.34666199074</x:v>
+        <x:v>45978.991258449074</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -105,7 +105,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>45978.34666199074</x:v>
+        <x:v>45978.991258449074</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="Rf5eb8dcabe0b42a6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R51abfba767c7466f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -97,7 +97,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>45978.991258449074</x:v>
+        <x:v>45979.396080555554</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -105,7 +105,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>45978.991258449074</x:v>
+        <x:v>45979.396080555554</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R51abfba767c7466f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R09943f3f84944179"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -97,7 +97,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>45979.396080555554</x:v>
+        <x:v>45979.410144409725</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -105,7 +105,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>45979.396080555554</x:v>
+        <x:v>45979.410144409725</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R09943f3f84944179"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R4e171ef168ea43eb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -97,7 +97,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>45979.410144409725</x:v>
+        <x:v>45979.97417868055</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -105,7 +105,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>45979.410144409725</x:v>
+        <x:v>45979.97417868055</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R4e171ef168ea43eb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R0513bf8e98b74b1c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -97,7 +97,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>45979.97417868055</x:v>
+        <x:v>45980.05897637732</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -105,7 +105,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>45979.97417868055</x:v>
+        <x:v>45980.05897637732</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R0513bf8e98b74b1c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R905f8bf6025a4f20"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -97,7 +97,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>45980.05897637732</x:v>
+        <x:v>45980.065381203705</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -105,7 +105,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>45980.05897637732</x:v>
+        <x:v>45980.065381203705</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R905f8bf6025a4f20"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="Ra756d92ece914cb7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -97,7 +97,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>45980.065381203705</x:v>
+        <x:v>45980.17938915509</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -105,7 +105,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>45980.065381203705</x:v>
+        <x:v>45980.17938915509</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="Ra756d92ece914cb7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="Ra234fabda047441d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -97,7 +97,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>45980.17938915509</x:v>
+        <x:v>45980.239889375</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -105,7 +105,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>45980.17938915509</x:v>
+        <x:v>45980.239889375</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="Ra234fabda047441d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R29d234cd44e2408b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -97,7 +97,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>45980.239889375</x:v>
+        <x:v>45980.2592422338</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -105,7 +105,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>45980.239889375</x:v>
+        <x:v>45980.2592422338</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R29d234cd44e2408b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="Rce44b4e703644987"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -97,7 +97,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>45980.2592422338</x:v>
+        <x:v>45980.401009953704</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -105,7 +105,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>45980.2592422338</x:v>
+        <x:v>45980.401009953704</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="Rce44b4e703644987"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="Refbb7600126142c4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -97,7 +97,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>45980.401009953704</x:v>
+        <x:v>45980.43830736111</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -105,7 +105,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>45980.401009953704</x:v>
+        <x:v>45980.43830736111</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="Refbb7600126142c4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R531d7396be384c29"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -97,7 +97,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>45980.43830736111</x:v>
+        <x:v>45980.98040910879</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -105,7 +105,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>45980.43830736111</x:v>
+        <x:v>45980.98040910879</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R531d7396be384c29"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R0282c422459547ad"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -97,7 +97,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>45980.98040910879</x:v>
+        <x:v>45980.98859799768</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -105,7 +105,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>45980.98040910879</x:v>
+        <x:v>45980.98859799768</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R0282c422459547ad"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R91c8e1a63c3249f5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -97,7 +97,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>45980.98859799768</x:v>
+        <x:v>45981.1278283912</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -105,7 +105,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>45980.98859799768</x:v>
+        <x:v>45981.1278283912</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R91c8e1a63c3249f5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="Rc6ee9a37c3014e3e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -97,7 +97,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>45981.1278283912</x:v>
+        <x:v>45981.228250486114</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -105,7 +105,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>45981.1278283912</x:v>
+        <x:v>45981.228250486114</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="Rc6ee9a37c3014e3e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="Ra5cddd03edbb4033"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -97,7 +97,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>45981.228250486114</x:v>
+        <x:v>45981.70168925926</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -105,7 +105,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>45981.228250486114</x:v>
+        <x:v>45981.70168925926</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="Ra5cddd03edbb4033"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R1d257c6ac3d54817"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -97,7 +97,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>45981.70168925926</x:v>
+        <x:v>45993.235666354165</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -105,7 +105,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>45981.70168925926</x:v>
+        <x:v>45993.235666354165</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R1d257c6ac3d54817"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R8428e2bfda244ffc"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -97,7 +97,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>45993.235666354165</x:v>
+        <x:v>45993.24879199074</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -105,7 +105,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>45993.235666354165</x:v>
+        <x:v>45993.24879199074</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R8428e2bfda244ffc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="Rfd17b6dfda2d4354"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -97,7 +97,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>45993.24879199074</x:v>
+        <x:v>45993.425738715276</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -105,7 +105,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>45993.24879199074</x:v>
+        <x:v>45993.425738715276</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="Rfd17b6dfda2d4354"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R3dda2d267f93404a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -97,7 +97,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>45993.425738715276</x:v>
+        <x:v>46003.08408594907</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -105,7 +105,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>45993.425738715276</x:v>
+        <x:v>46003.08408594907</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R3dda2d267f93404a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R91ae84a904ba443e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -97,7 +97,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>46003.08408594907</x:v>
+        <x:v>46026.21636413194</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -105,7 +105,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>46003.08408594907</x:v>
+        <x:v>46026.21636413194</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R91ae84a904ba443e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R9ebba8f69e2c4626"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -97,7 +97,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>46026.21636413194</x:v>
+        <x:v>46026.25985699074</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -105,7 +105,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>46026.21636413194</x:v>
+        <x:v>46026.25985699074</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R9ebba8f69e2c4626"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="Rc2da0cb549214d13"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -97,7 +97,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>46026.25985699074</x:v>
+        <x:v>46034.32543563657</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -105,7 +105,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>46026.25985699074</x:v>
+        <x:v>46034.32543563657</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="Rc2da0cb549214d13"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R3b79528e709342dc"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -97,7 +97,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>46034.32543563657</x:v>
+        <x:v>46036.30166094907</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -105,7 +105,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>46034.32543563657</x:v>
+        <x:v>46036.30166094907</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R3b79528e709342dc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R2d4134ae5ebc406d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -97,7 +97,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>46036.30166094907</x:v>
+        <x:v>46036.67201349537</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -105,7 +105,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>46036.30166094907</x:v>
+        <x:v>46036.67201349537</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="R2d4134ae5ebc406d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="Rdedd9d0c7d294c54"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -97,7 +97,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>46036.67201349537</x:v>
+        <x:v>46036.71703886574</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -105,7 +105,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>46036.67201349537</x:v>
+        <x:v>46036.717038877316</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/02_DataTypes.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="Rdedd9d0c7d294c54"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataTypes" sheetId="1" r:id="Reaea0f5d68774981"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -97,7 +97,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="2" t="n">
-        <x:v>46036.71703886574</x:v>
+        <x:v>46036.83244792824</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -105,7 +105,7 @@
         <x:v>DateTimeOffset:</x:v>
       </x:c>
       <x:c r="B5" s="2" t="n">
-        <x:v>46036.717038877316</x:v>
+        <x:v>46036.83244792824</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
